--- a/va_facility_data_2025-02-20/Robert D. Maxwell Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Robert%20D.%20Maxwell%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Robert D. Maxwell Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Robert%20D.%20Maxwell%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R352c7e5787114079b0b2f8e5ce81e15c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf0735964425f46389f592b8e6d948b0f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R525980afa3b04149a8fcd2b630d37851"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7325733b4c0b49a8b443e28c0bea1dd4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1b9825c2f0df41dca47e9f7ddf003425"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R08bf91b4b28c432b80d286da96aa7e11"/>
   </x:sheets>
 </x:workbook>
 </file>
